--- a/Proyectos/2016/Linea Base/Plan_calidad.xlsx
+++ b/Proyectos/2016/Linea Base/Plan_calidad.xlsx
@@ -5,17 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de Calidad" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>Plan de calidad</t>
   </si>
@@ -32,6 +37,15 @@
     <t>Responsable</t>
   </si>
   <si>
+    <t>Planeación anual</t>
+  </si>
+  <si>
+    <t>Anuales</t>
+  </si>
+  <si>
+    <t>Magda Montoya</t>
+  </si>
+  <si>
     <t>Prospectación</t>
   </si>
   <si>
@@ -44,37 +58,25 @@
     <t>Ventas</t>
   </si>
   <si>
-    <t>Planeación</t>
-  </si>
-  <si>
     <t>Implementación</t>
   </si>
   <si>
-    <t>Cierre</t>
-  </si>
-  <si>
     <t>Garantía</t>
   </si>
   <si>
     <t>Calidad</t>
   </si>
   <si>
-    <t>Semestral</t>
-  </si>
-  <si>
-    <t>Adriana Jaramillo</t>
+    <t>Anual</t>
   </si>
   <si>
     <t>Cambios</t>
   </si>
   <si>
-    <t>Planeación anual</t>
-  </si>
-  <si>
-    <t>Anuales</t>
-  </si>
-  <si>
-    <t>Métricas y Monitoreo</t>
+    <t>Cuando se presente</t>
+  </si>
+  <si>
+    <t>Seguimento</t>
   </si>
   <si>
     <t>  </t>
@@ -89,6 +91,15 @@
     <t>Momento de ejecución</t>
   </si>
   <si>
+    <t>Catalogo de Servicios</t>
+  </si>
+  <si>
+    <t>Plan de proyecto anual</t>
+  </si>
+  <si>
+    <t>Plan de métricas</t>
+  </si>
+  <si>
     <t>Cotización</t>
   </si>
   <si>
@@ -98,19 +109,10 @@
     <t>Ticket de servicio</t>
   </si>
   <si>
-    <t>Carta de aceptación</t>
+    <t>Carta de cierre</t>
   </si>
   <si>
     <t>Reporte de Monitoreo</t>
-  </si>
-  <si>
-    <t>Plan de proyecto anual</t>
-  </si>
-  <si>
-    <t>Catalogo de Servicios</t>
-  </si>
-  <si>
-    <t>Plan de métricas</t>
   </si>
   <si>
     <t>Plan de Configuración</t>
@@ -246,14 +248,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
   </fills>
@@ -334,26 +336,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,11 +364,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,19 +451,19 @@
   </sheetPr>
   <dimension ref="B3:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3740740740741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.6259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0279069767442"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.0604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.5953488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.706976744186"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,399 +495,377 @@
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="D19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5"/>
+      <c r="D20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="11" t="s">
-        <v>28</v>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="D28" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="D32" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="E38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="13" t="s">
+      <c r="F38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="13" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="14" t="s">
+      <c r="D39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="E39" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="F39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="15" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="14" t="s">
+      <c r="D40" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="F40" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
